--- a/dataAnalysisCodes/watchERP_2stim/01-preprocess-plot/watchErpDataset.xlsx
+++ b/dataAnalysisCodes/watchERP_2stim/01-preprocess-plot/watchErpDataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="61">
   <si>
     <t>date</t>
   </si>
@@ -98,6 +98,105 @@
   </si>
   <si>
     <t>2013-05-28-nikolay</t>
+  </si>
+  <si>
+    <t>2013-06-12-nick</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>nick</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>marijn</t>
+  </si>
+  <si>
+    <t>2013-06-14-marijn</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>yelena</t>
+  </si>
+  <si>
+    <t>2013-06-14-yelena</t>
+  </si>
+  <si>
+    <t>2013-06-14-14-13-50-run1</t>
+  </si>
+  <si>
+    <t>2013-06-14-14-21-21-run2</t>
+  </si>
+  <si>
+    <t>2013-06-14-14-27-45-run3</t>
+  </si>
+  <si>
+    <t>2013-06-14-14-33-18-run4</t>
+  </si>
+  <si>
+    <t>2013-06-14-14-51-21-run5</t>
+  </si>
+  <si>
+    <t>2013-06-14-14-58-54-run6</t>
+  </si>
+  <si>
+    <t>2013-06-14-15-04-37-run7</t>
+  </si>
+  <si>
+    <t>2013-06-14-15-11-23-run8</t>
+  </si>
+  <si>
+    <t>2013-06-14-16-49-06-run1</t>
+  </si>
+  <si>
+    <t>2013-06-14-16-55-50-run2</t>
+  </si>
+  <si>
+    <t>2013-06-14-17-01-38-run3</t>
+  </si>
+  <si>
+    <t>2013-06-14-17-07-22-run4</t>
+  </si>
+  <si>
+    <t>2013-06-14-17-48-31-run5</t>
+  </si>
+  <si>
+    <t>2013-06-14-17-55-46-run6</t>
+  </si>
+  <si>
+    <t>2013-06-14-18-02-27-run7</t>
+  </si>
+  <si>
+    <t>2013-06-14-18-10-22-run8</t>
+  </si>
+  <si>
+    <t>2013-06-12-14-55-14-run1</t>
+  </si>
+  <si>
+    <t>2013-06-12-15-02-03-run2</t>
+  </si>
+  <si>
+    <t>2013-06-12-15-07-46-run3</t>
+  </si>
+  <si>
+    <t>2013-06-12-15-13-10-run4</t>
+  </si>
+  <si>
+    <t>2013-06-12-15-24-23-run5</t>
+  </si>
+  <si>
+    <t>2013-06-12-15-30-28-run6</t>
+  </si>
+  <si>
+    <t>2013-06-12-15-39-52-run7</t>
+  </si>
+  <si>
+    <t>2013-06-12-15-45-28-run8</t>
   </si>
 </sst>
 </file>
@@ -454,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B17"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,6 +909,486 @@
         <v>8</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="4">
+        <v>41437</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="4">
+        <v>41437</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="4">
+        <v>41437</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="4">
+        <v>41437</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="4">
+        <v>41437</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="4">
+        <v>41437</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="4">
+        <v>41437</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4">
+        <v>41437</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="4">
+        <v>41439</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="4">
+        <v>41439</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="4">
+        <v>41439</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="4">
+        <v>41439</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="4">
+        <v>41439</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="4">
+        <v>41439</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="4">
+        <v>41439</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="4">
+        <v>41439</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="4">
+        <v>41439</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="4">
+        <v>41439</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="4">
+        <v>41439</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="4">
+        <v>41439</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="4">
+        <v>41439</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="4">
+        <v>41439</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="4">
+        <v>41439</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="4">
+        <v>41439</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="2">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataAnalysisCodes/watchERP_2stim/01-preprocess-plot/watchErpDataset.xlsx
+++ b/dataAnalysisCodes/watchERP_2stim/01-preprocess-plot/watchErpDataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="73">
   <si>
     <t>date</t>
   </si>
@@ -197,6 +197,42 @@
   </si>
   <si>
     <t>2013-06-12-15-45-28-run8</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>robert</t>
+  </si>
+  <si>
+    <t>28/06/2013</t>
+  </si>
+  <si>
+    <t>2013-06-28-robert</t>
+  </si>
+  <si>
+    <t>2013-06-28-10-53-09-run2</t>
+  </si>
+  <si>
+    <t>2013-06-28-11-01-33-run3</t>
+  </si>
+  <si>
+    <t>2013-06-28-11-08-20-run4</t>
+  </si>
+  <si>
+    <t>2013-06-28-11-19-58-run5</t>
+  </si>
+  <si>
+    <t>2013-06-28-11-27-28-run6</t>
+  </si>
+  <si>
+    <t>2013-06-28-11-36-41-run7</t>
+  </si>
+  <si>
+    <t>2013-06-28-11-43-24-run8</t>
+  </si>
+  <si>
+    <t>2013-06-28-11-50-00-run9</t>
   </si>
 </sst>
 </file>
@@ -553,18 +589,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
   </cols>
@@ -1389,6 +1425,166 @@
         <v>8</v>
       </c>
     </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="2">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataAnalysisCodes/watchERP_2stim/01-preprocess-plot/watchErpDataset.xlsx
+++ b/dataAnalysisCodes/watchERP_2stim/01-preprocess-plot/watchErpDataset.xlsx
@@ -22,9 +22,6 @@
     <t>run</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
     <t>subjectName</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>2013-05-24-11-36-04-run8</t>
   </si>
   <si>
-    <t>S2</t>
-  </si>
-  <si>
     <t>nikolay</t>
   </si>
   <si>
@@ -103,24 +97,15 @@
     <t>2013-06-12-nick</t>
   </si>
   <si>
-    <t>S3</t>
-  </si>
-  <si>
     <t>nick</t>
   </si>
   <si>
-    <t>S4</t>
-  </si>
-  <si>
     <t>marijn</t>
   </si>
   <si>
     <t>2013-06-14-marijn</t>
   </si>
   <si>
-    <t>S5</t>
-  </si>
-  <si>
     <t>yelena</t>
   </si>
   <si>
@@ -199,9 +184,6 @@
     <t>2013-06-12-15-45-28-run8</t>
   </si>
   <si>
-    <t>S6</t>
-  </si>
-  <si>
     <t>robert</t>
   </si>
   <si>
@@ -233,6 +215,24 @@
   </si>
   <si>
     <t>2013-06-28-11-50-00-run9</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>S03</t>
+  </si>
+  <si>
+    <t>S04</t>
+  </si>
+  <si>
+    <t>S05</t>
+  </si>
+  <si>
+    <t>S06</t>
   </si>
 </sst>
 </file>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,19 +607,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -627,19 +627,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3">
         <v>41418</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -647,19 +647,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3">
         <v>41418</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
@@ -667,19 +667,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3">
         <v>41418</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3">
         <v>41418</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2">
         <v>4</v>
@@ -707,19 +707,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3">
         <v>41418</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2">
         <v>5</v>
@@ -727,19 +727,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3">
         <v>41418</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2">
         <v>6</v>
@@ -747,19 +747,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3">
         <v>41418</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="2">
         <v>7</v>
@@ -767,19 +767,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3">
         <v>41418</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2">
         <v>8</v>
@@ -787,19 +787,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4">
         <v>41422</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -807,19 +807,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4">
         <v>41422</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4">
         <v>41422</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2">
         <v>3</v>
@@ -847,19 +847,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="4">
         <v>41422</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2">
         <v>4</v>
@@ -867,19 +867,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4">
         <v>41422</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2">
         <v>5</v>
@@ -887,19 +887,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="4">
         <v>41422</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2">
         <v>6</v>
@@ -907,19 +907,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4">
         <v>41422</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2">
         <v>7</v>
@@ -927,19 +927,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4">
         <v>41422</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2">
         <v>8</v>
@@ -947,19 +947,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4">
         <v>41437</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C19" s="4">
         <v>41437</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2">
         <v>2</v>
@@ -987,19 +987,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C20" s="4">
         <v>41437</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2">
         <v>3</v>
@@ -1007,19 +1007,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4">
         <v>41437</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2">
         <v>4</v>
@@ -1027,19 +1027,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C22" s="4">
         <v>41437</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2">
         <v>5</v>
@@ -1047,19 +1047,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C23" s="4">
         <v>41437</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F23" s="2">
         <v>6</v>
@@ -1067,19 +1067,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C24" s="4">
         <v>41437</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2">
         <v>7</v>
@@ -1087,19 +1087,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C25" s="4">
         <v>41437</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2">
         <v>8</v>
@@ -1107,19 +1107,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C26" s="4">
         <v>41439</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
@@ -1127,19 +1127,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C27" s="4">
         <v>41439</v>
       </c>
       <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
         <v>33</v>
-      </c>
-      <c r="E27" t="s">
-        <v>38</v>
       </c>
       <c r="F27" s="2">
         <v>2</v>
@@ -1147,19 +1147,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C28" s="4">
         <v>41439</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F28" s="2">
         <v>3</v>
@@ -1167,19 +1167,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C29" s="4">
         <v>41439</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F29" s="2">
         <v>4</v>
@@ -1187,19 +1187,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C30" s="4">
         <v>41439</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F30" s="2">
         <v>5</v>
@@ -1207,19 +1207,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C31" s="4">
         <v>41439</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F31" s="2">
         <v>6</v>
@@ -1227,19 +1227,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C32" s="4">
         <v>41439</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F32" s="2">
         <v>7</v>
@@ -1247,19 +1247,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C33" s="4">
         <v>41439</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F33" s="2">
         <v>8</v>
@@ -1267,19 +1267,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C34" s="4">
         <v>41439</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F34" s="2">
         <v>1</v>
@@ -1287,19 +1287,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C35" s="4">
         <v>41439</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F35" s="2">
         <v>2</v>
@@ -1307,19 +1307,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C36" s="4">
         <v>41439</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F36" s="2">
         <v>3</v>
@@ -1327,19 +1327,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C37" s="4">
         <v>41439</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F37" s="2">
         <v>4</v>
@@ -1347,19 +1347,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C38" s="4">
         <v>41439</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E38" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F38" s="2">
         <v>5</v>
@@ -1367,19 +1367,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C39" s="4">
         <v>41439</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F39" s="2">
         <v>6</v>
@@ -1387,19 +1387,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C40" s="4">
         <v>41439</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F40" s="2">
         <v>7</v>
@@ -1407,19 +1407,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C41" s="4">
         <v>41439</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F41" s="2">
         <v>8</v>
@@ -1427,19 +1427,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
@@ -1447,19 +1447,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E43" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F43" s="2">
         <v>2</v>
@@ -1467,19 +1467,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" t="s">
         <v>61</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" t="s">
-        <v>67</v>
       </c>
       <c r="F44" s="2">
         <v>3</v>
@@ -1487,19 +1487,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" t="s">
         <v>62</v>
-      </c>
-      <c r="C45" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" t="s">
-        <v>64</v>
-      </c>
-      <c r="E45" t="s">
-        <v>68</v>
       </c>
       <c r="F45" s="2">
         <v>4</v>
@@ -1507,19 +1507,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" t="s">
         <v>63</v>
-      </c>
-      <c r="D46" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" t="s">
-        <v>69</v>
       </c>
       <c r="F46" s="2">
         <v>5</v>
@@ -1527,19 +1527,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" t="s">
         <v>64</v>
-      </c>
-      <c r="E47" t="s">
-        <v>70</v>
       </c>
       <c r="F47" s="2">
         <v>6</v>
@@ -1547,19 +1547,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E48" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F48" s="2">
         <v>7</v>
@@ -1567,19 +1567,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F49" s="2">
         <v>8</v>

--- a/dataAnalysisCodes/watchERP_2stim/01-preprocess-plot/watchErpDataset.xlsx
+++ b/dataAnalysisCodes/watchERP_2stim/01-preprocess-plot/watchErpDataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="84">
   <si>
     <t>date</t>
   </si>
@@ -233,6 +233,39 @@
   </si>
   <si>
     <t>S06</t>
+  </si>
+  <si>
+    <t>2013-07-05-anderson</t>
+  </si>
+  <si>
+    <t>S07</t>
+  </si>
+  <si>
+    <t>anderson</t>
+  </si>
+  <si>
+    <t>2013-07-05-14-56-29-run1</t>
+  </si>
+  <si>
+    <t>2013-07-05-15-03-20-run2</t>
+  </si>
+  <si>
+    <t>2013-07-05-15-09-42-run3</t>
+  </si>
+  <si>
+    <t>2013-07-05-15-21-37-run4</t>
+  </si>
+  <si>
+    <t>2013-07-05-15-36-23-run5</t>
+  </si>
+  <si>
+    <t>2013-07-05-15-42-28-run6</t>
+  </si>
+  <si>
+    <t>2013-07-05-15-48-04-run7</t>
+  </si>
+  <si>
+    <t>2013-07-05-15-54-43-run8</t>
   </si>
 </sst>
 </file>
@@ -589,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +633,7 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
   </cols>
@@ -1585,6 +1618,166 @@
         <v>8</v>
       </c>
     </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="4">
+        <v>41401</v>
+      </c>
+      <c r="D50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="4">
+        <v>41401</v>
+      </c>
+      <c r="D51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" t="s">
+        <v>77</v>
+      </c>
+      <c r="F51" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="4">
+        <v>41401</v>
+      </c>
+      <c r="D52" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="4">
+        <v>41401</v>
+      </c>
+      <c r="D53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="4">
+        <v>41401</v>
+      </c>
+      <c r="D54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54" t="s">
+        <v>80</v>
+      </c>
+      <c r="F54" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="4">
+        <v>41401</v>
+      </c>
+      <c r="D55" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="4">
+        <v>41401</v>
+      </c>
+      <c r="D56" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="4">
+        <v>41401</v>
+      </c>
+      <c r="D57" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" t="s">
+        <v>83</v>
+      </c>
+      <c r="F57" s="2">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataAnalysisCodes/watchERP_2stim/01-preprocess-plot/watchErpDataset.xlsx
+++ b/dataAnalysisCodes/watchERP_2stim/01-preprocess-plot/watchErpDataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="95">
   <si>
     <t>date</t>
   </si>
@@ -266,6 +266,39 @@
   </si>
   <si>
     <t>2013-07-05-15-54-43-run8</t>
+  </si>
+  <si>
+    <t>2013-08-22-alejandro</t>
+  </si>
+  <si>
+    <t>2013-08-22-10-23-04-run1</t>
+  </si>
+  <si>
+    <t>2013-08-22-10-31-42-run2</t>
+  </si>
+  <si>
+    <t>2013-08-22-10-38-49-run3</t>
+  </si>
+  <si>
+    <t>2013-08-22-10-46-23-run4</t>
+  </si>
+  <si>
+    <t>2013-08-22-10-58-46-run5</t>
+  </si>
+  <si>
+    <t>2013-08-22-11-05-22-run6</t>
+  </si>
+  <si>
+    <t>2013-08-22-11-13-00-run7</t>
+  </si>
+  <si>
+    <t>2013-08-22-11-19-02-run8</t>
+  </si>
+  <si>
+    <t>S08</t>
+  </si>
+  <si>
+    <t>alejandro</t>
   </si>
 </sst>
 </file>
@@ -622,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="A59" sqref="A59:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,6 +1811,166 @@
         <v>8</v>
       </c>
     </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="4">
+        <v>41508</v>
+      </c>
+      <c r="D58" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" t="s">
+        <v>85</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="4">
+        <v>41508</v>
+      </c>
+      <c r="D59" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" t="s">
+        <v>86</v>
+      </c>
+      <c r="F59" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="4">
+        <v>41508</v>
+      </c>
+      <c r="D60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" t="s">
+        <v>87</v>
+      </c>
+      <c r="F60" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="4">
+        <v>41508</v>
+      </c>
+      <c r="D61" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F61" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="4">
+        <v>41508</v>
+      </c>
+      <c r="D62" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" t="s">
+        <v>89</v>
+      </c>
+      <c r="F62" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="4">
+        <v>41508</v>
+      </c>
+      <c r="D63" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" t="s">
+        <v>90</v>
+      </c>
+      <c r="F63" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="4">
+        <v>41508</v>
+      </c>
+      <c r="D64" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" t="s">
+        <v>91</v>
+      </c>
+      <c r="F64" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="4">
+        <v>41508</v>
+      </c>
+      <c r="D65" t="s">
+        <v>84</v>
+      </c>
+      <c r="E65" t="s">
+        <v>92</v>
+      </c>
+      <c r="F65" s="2">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
